--- a/tulokset.xlsx
+++ b/tulokset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Aalto/Kandidaatintyö/tutkimus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Aalto/Kandidaatintyö/cryptocurrency-value-and-volatility-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA01E040-26AF-664C-95DA-DDE3C68A81F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA0544-891C-F14A-91EB-7423F4546608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52940" yWindow="1400" windowWidth="44280" windowHeight="26180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52920" yWindow="1400" windowWidth="44280" windowHeight="26180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volatility" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
   <si>
     <t>EUR</t>
   </si>
@@ -331,7 +331,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0\ %"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1056,10 +1056,10 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
@@ -11947,7 +11947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AL46"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:L14"/>
     </sheetView>
   </sheetViews>
@@ -12508,19 +12508,19 @@
         <v>0</v>
       </c>
       <c r="C20" s="19">
-        <f>MAX($C4:$L4)</f>
+        <f t="shared" ref="C20:C30" si="0">MAX($C4:$L4)</f>
         <v>0.123331693753643</v>
       </c>
       <c r="D20" s="11">
-        <f>MIN($C4:$L4)</f>
+        <f t="shared" ref="D20:D30" si="1">MIN($C4:$L4)</f>
         <v>4.5048229749856603E-2</v>
       </c>
       <c r="E20" s="11">
-        <f>AVERAGE($C4:$L4)</f>
+        <f t="shared" ref="E20:E30" si="2">AVERAGE($C4:$L4)</f>
         <v>7.4218701791823632E-2</v>
       </c>
       <c r="F20" s="12">
-        <f>MEDIAN($C4:$L4)</f>
+        <f t="shared" ref="F20:F30" si="3">MEDIAN($C4:$L4)</f>
         <v>7.3772975578649744E-2</v>
       </c>
       <c r="G20" s="27"/>
@@ -12530,19 +12530,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="19">
-        <f>MAX($C5:$L5)</f>
+        <f t="shared" si="0"/>
         <v>0.140899875197427</v>
       </c>
       <c r="D21" s="11">
-        <f>MIN($C5:$L5)</f>
+        <f t="shared" si="1"/>
         <v>5.0625036970963502E-2</v>
       </c>
       <c r="E21" s="11">
-        <f>AVERAGE($C5:$L5)</f>
+        <f t="shared" si="2"/>
         <v>8.3821573975521035E-2</v>
       </c>
       <c r="F21" s="12">
-        <f>MEDIAN($C5:$L5)</f>
+        <f t="shared" si="3"/>
         <v>8.2838433719627458E-2</v>
       </c>
       <c r="G21" s="27"/>
@@ -12552,19 +12552,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="19">
-        <f>MAX($C6:$L6)</f>
+        <f t="shared" si="0"/>
         <v>0.12610295849560499</v>
       </c>
       <c r="D22" s="11">
-        <f>MIN($C6:$L6)</f>
+        <f t="shared" si="1"/>
         <v>4.00474843444346E-2</v>
       </c>
       <c r="E22" s="11">
-        <f>AVERAGE($C6:$L6)</f>
+        <f t="shared" si="2"/>
         <v>8.2599380367971875E-2</v>
       </c>
       <c r="F22" s="12">
-        <f>MEDIAN($C6:$L6)</f>
+        <f t="shared" si="3"/>
         <v>8.1111695855078741E-2</v>
       </c>
       <c r="G22" s="27"/>
@@ -12574,19 +12574,19 @@
         <v>3</v>
       </c>
       <c r="C23" s="19">
-        <f>MAX($C7:$L7)</f>
+        <f t="shared" si="0"/>
         <v>0.36245005371740802</v>
       </c>
       <c r="D23" s="11">
-        <f>MIN($C7:$L7)</f>
+        <f t="shared" si="1"/>
         <v>0.122007484350639</v>
       </c>
       <c r="E23" s="11">
-        <f>AVERAGE($C7:$L7)</f>
+        <f t="shared" si="2"/>
         <v>0.2422580211442899</v>
       </c>
       <c r="F23" s="12">
-        <f>MEDIAN($C7:$L7)</f>
+        <f t="shared" si="3"/>
         <v>0.23796456187460649</v>
       </c>
       <c r="G23" s="27"/>
@@ -12596,19 +12596,19 @@
         <v>4</v>
       </c>
       <c r="C24" s="19">
-        <f>MAX($C8:$L8)</f>
+        <f t="shared" si="0"/>
         <v>0.93030238362653095</v>
       </c>
       <c r="D24" s="11">
-        <f>MIN($C8:$L8)</f>
+        <f t="shared" si="1"/>
         <v>0.254352261510359</v>
       </c>
       <c r="E24" s="11">
-        <f>AVERAGE($C8:$L8)</f>
+        <f t="shared" si="2"/>
         <v>0.53121140997606231</v>
       </c>
       <c r="F24" s="12">
-        <f>MEDIAN($C8:$L8)</f>
+        <f t="shared" si="3"/>
         <v>0.54510012536134944</v>
       </c>
       <c r="G24" s="27"/>
@@ -12618,19 +12618,19 @@
         <v>5</v>
       </c>
       <c r="C25" s="19">
-        <f>MAX($C9:$L9)</f>
+        <f t="shared" si="0"/>
         <v>0.71249406705029705</v>
       </c>
       <c r="D25" s="11">
-        <f>MIN($C9:$L9)</f>
+        <f t="shared" si="1"/>
         <v>0.171268049792969</v>
       </c>
       <c r="E25" s="11">
-        <f>AVERAGE($C9:$L9)</f>
+        <f t="shared" si="2"/>
         <v>0.33114143831652026</v>
       </c>
       <c r="F25" s="12">
-        <f>MEDIAN($C9:$L9)</f>
+        <f t="shared" si="3"/>
         <v>0.2738191446038955</v>
       </c>
       <c r="G25" s="27"/>
@@ -12640,19 +12640,19 @@
         <v>6</v>
       </c>
       <c r="C26" s="19">
-        <f>MAX($C10:$L10)</f>
+        <f t="shared" si="0"/>
         <v>0.94772354705852602</v>
       </c>
       <c r="D26" s="11">
-        <f>MIN($C10:$L10)</f>
+        <f t="shared" si="1"/>
         <v>0.18555953442929199</v>
       </c>
       <c r="E26" s="11">
-        <f>AVERAGE($C10:$L10)</f>
+        <f t="shared" si="2"/>
         <v>0.36526472440708962</v>
       </c>
       <c r="F26" s="12">
-        <f>MEDIAN($C10:$L10)</f>
+        <f t="shared" si="3"/>
         <v>0.28642434399839151</v>
       </c>
       <c r="G26" s="27"/>
@@ -12662,19 +12662,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="19">
-        <f>MAX($C11:$L11)</f>
+        <f t="shared" si="0"/>
         <v>1.3312182096081</v>
       </c>
       <c r="D27" s="11">
-        <f>MIN($C11:$L11)</f>
+        <f t="shared" si="1"/>
         <v>0.488294191397384</v>
       </c>
       <c r="E27" s="11">
-        <f>AVERAGE($C11:$L11)</f>
+        <f t="shared" si="2"/>
         <v>0.79940767533307089</v>
       </c>
       <c r="F27" s="12">
-        <f>MEDIAN($C11:$L11)</f>
+        <f t="shared" si="3"/>
         <v>0.76422117513028298</v>
       </c>
       <c r="G27" s="27"/>
@@ -12684,19 +12684,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="19">
-        <f>MAX($C12:$L12)</f>
+        <f t="shared" si="0"/>
         <v>3.1755626984499101</v>
       </c>
       <c r="D28" s="11">
-        <f>MIN($C12:$L12)</f>
+        <f t="shared" si="1"/>
         <v>0.72479930903793899</v>
       </c>
       <c r="E28" s="11">
-        <f>AVERAGE($C12:$L12)</f>
+        <f t="shared" si="2"/>
         <v>1.5752382933042928</v>
       </c>
       <c r="F28" s="12">
-        <f>MEDIAN($C12:$L12)</f>
+        <f t="shared" si="3"/>
         <v>1.2838716058841999</v>
       </c>
       <c r="G28" s="27"/>
@@ -12706,19 +12706,19 @@
         <v>9</v>
       </c>
       <c r="C29" s="19">
-        <f>MAX($C13:$L13)</f>
+        <f t="shared" si="0"/>
         <v>1.6053732545845301</v>
       </c>
       <c r="D29" s="11">
-        <f>MIN($C13:$L13)</f>
+        <f t="shared" si="1"/>
         <v>0.305039134260498</v>
       </c>
       <c r="E29" s="11">
-        <f>AVERAGE($C13:$L13)</f>
+        <f t="shared" si="2"/>
         <v>1.0055536549455697</v>
       </c>
       <c r="F29" s="12">
-        <f>MEDIAN($C13:$L13)</f>
+        <f t="shared" si="3"/>
         <v>1.0467192468369348</v>
       </c>
       <c r="G29" s="27"/>
@@ -12728,19 +12728,19 @@
         <v>10</v>
       </c>
       <c r="C30" s="20">
-        <f>MAX($C14:$L14)</f>
+        <f t="shared" si="0"/>
         <v>1.06346759549684</v>
       </c>
       <c r="D30" s="14">
-        <f>MIN($C14:$L14)</f>
+        <f t="shared" si="1"/>
         <v>0.80117253470246796</v>
       </c>
       <c r="E30" s="14">
-        <f>AVERAGE($C14:$L14)</f>
+        <f t="shared" si="2"/>
         <v>0.97033689253230693</v>
       </c>
       <c r="F30" s="15">
-        <f>MEDIAN($C14:$L14)</f>
+        <f t="shared" si="3"/>
         <v>1.0083537199649599</v>
       </c>
       <c r="G30" s="27"/>
@@ -12799,39 +12799,39 @@
         <v>0</v>
       </c>
       <c r="C36" s="35">
-        <f>(D4-C4)*100</f>
+        <f t="shared" ref="C36:K36" si="4">(D4-C4)*100</f>
         <v>-0.93921266613527088</v>
       </c>
       <c r="D36" s="35">
-        <f>(E4-D4)*100</f>
+        <f t="shared" si="4"/>
         <v>-1.1711442810627291</v>
       </c>
       <c r="E36" s="35">
-        <f>(F4-E4)*100</f>
+        <f t="shared" si="4"/>
         <v>6.11095252021458</v>
       </c>
       <c r="F36" s="35">
-        <f>(G4-F4)*100</f>
+        <f t="shared" si="4"/>
         <v>-4.0550255558677399</v>
       </c>
       <c r="G36" s="35">
-        <f>(H4-G4)*100</f>
+        <f t="shared" si="4"/>
         <v>-0.91690983997906039</v>
       </c>
       <c r="H36" s="35">
-        <f>(I4-H4)*100</f>
+        <f t="shared" si="4"/>
         <v>-0.14641349534825904</v>
       </c>
       <c r="I36" s="35">
-        <f>(J4-I4)*100</f>
+        <f t="shared" si="4"/>
         <v>-2.1972534760443807</v>
       </c>
       <c r="J36" s="35">
-        <f>(K4-J4)*100</f>
+        <f t="shared" si="4"/>
         <v>2.5432253483307798</v>
       </c>
       <c r="K36" s="36">
-        <f>(L4-K4)*100</f>
+        <f t="shared" si="4"/>
         <v>-3.0559693814699793</v>
       </c>
       <c r="L36" s="27"/>
@@ -12841,39 +12841,39 @@
         <v>1</v>
       </c>
       <c r="C37" s="35">
-        <f>(D5-C5)*100</f>
+        <f t="shared" ref="C37:K37" si="5">(D5-C5)*100</f>
         <v>1.1642689461185893</v>
       </c>
       <c r="D37" s="35">
-        <f>(E5-D5)*100</f>
+        <f t="shared" si="5"/>
         <v>-1.8233064068871498</v>
       </c>
       <c r="E37" s="35">
-        <f>(F5-E5)*100</f>
+        <f t="shared" si="5"/>
         <v>2.8251709657313802</v>
       </c>
       <c r="F37" s="35">
-        <f>(G5-F5)*100</f>
+        <f t="shared" si="5"/>
         <v>5.5426585298411695</v>
       </c>
       <c r="G37" s="35">
-        <f>(H5-G5)*100</f>
+        <f t="shared" si="5"/>
         <v>-5.2744883371551001</v>
       </c>
       <c r="H37" s="35">
-        <f>(I5-H5)*100</f>
+        <f t="shared" si="5"/>
         <v>-0.50958538788604957</v>
       </c>
       <c r="I37" s="35">
-        <f>(J5-I5)*100</f>
+        <f t="shared" si="5"/>
         <v>-4.4140845477609603E-2</v>
       </c>
       <c r="J37" s="35">
-        <f>(K5-J5)*100</f>
+        <f t="shared" si="5"/>
         <v>2.8279769528772594</v>
       </c>
       <c r="K37" s="36">
-        <f>(L5-K5)*100</f>
+        <f t="shared" si="5"/>
         <v>-6.0272462050048494</v>
       </c>
       <c r="L37" s="27"/>
@@ -12883,39 +12883,39 @@
         <v>2</v>
       </c>
       <c r="C38" s="35">
-        <f>(D6-C6)*100</f>
+        <f t="shared" ref="C38:K38" si="6">(D6-C6)*100</f>
         <v>4.4701757063935501</v>
       </c>
       <c r="D38" s="35">
-        <f>(E6-D6)*100</f>
+        <f t="shared" si="6"/>
         <v>-4.2768704177666708</v>
       </c>
       <c r="E38" s="35">
-        <f>(F6-E6)*100</f>
+        <f t="shared" si="6"/>
         <v>0.26519850278709095</v>
       </c>
       <c r="F38" s="35">
-        <f>(G6-F6)*100</f>
+        <f t="shared" si="6"/>
         <v>4.3665270126590787</v>
       </c>
       <c r="G38" s="35">
-        <f>(H6-G6)*100</f>
+        <f t="shared" si="6"/>
         <v>-4.1611583037300992</v>
       </c>
       <c r="H38" s="35">
-        <f>(I6-H6)*100</f>
+        <f t="shared" si="6"/>
         <v>-1.9979460126218804</v>
       </c>
       <c r="I38" s="35">
-        <f>(J6-I6)*100</f>
+        <f t="shared" si="6"/>
         <v>-0.87167586466167934</v>
       </c>
       <c r="J38" s="35">
-        <f>(K6-J6)*100</f>
+        <f t="shared" si="6"/>
         <v>3.6619306994511103</v>
       </c>
       <c r="K38" s="36">
-        <f>(L6-K6)*100</f>
+        <f t="shared" si="6"/>
         <v>-5.2366979335544901</v>
       </c>
       <c r="L38" s="27"/>
@@ -12925,39 +12925,39 @@
         <v>3</v>
       </c>
       <c r="C39" s="35">
-        <f>(D7-C7)*100</f>
+        <f t="shared" ref="C39:K39" si="7">(D7-C7)*100</f>
         <v>6.2301410087282987</v>
       </c>
       <c r="D39" s="35">
-        <f>(E7-D7)*100</f>
+        <f t="shared" si="7"/>
         <v>13.761753498140802</v>
       </c>
       <c r="E39" s="35">
-        <f>(F7-E7)*100</f>
+        <f t="shared" si="7"/>
         <v>-2.8873579159080007</v>
       </c>
       <c r="F39" s="35">
-        <f>(G7-F7)*100</f>
+        <f t="shared" si="7"/>
         <v>-8.6356717468186019</v>
       </c>
       <c r="G39" s="35">
-        <f>(H7-G7)*100</f>
+        <f t="shared" si="7"/>
         <v>3.1473029294829038</v>
       </c>
       <c r="H39" s="35">
-        <f>(I7-H7)*100</f>
+        <f t="shared" si="7"/>
         <v>-0.929409173496204</v>
       </c>
       <c r="I39" s="35">
-        <f>(J7-I7)*100</f>
+        <f t="shared" si="7"/>
         <v>-7.6236728002394978</v>
       </c>
       <c r="J39" s="35">
-        <f>(K7-J7)*100</f>
+        <f t="shared" si="7"/>
         <v>3.554740001145698</v>
       </c>
       <c r="K39" s="36">
-        <f>(L7-K7)*100</f>
+        <f t="shared" si="7"/>
         <v>-10.670188230843198</v>
       </c>
     </row>
@@ -12966,39 +12966,39 @@
         <v>4</v>
       </c>
       <c r="C40" s="35">
-        <f>(D8-C8)*100</f>
+        <f t="shared" ref="C40:K40" si="8">(D8-C8)*100</f>
         <v>3.592604586196102</v>
       </c>
       <c r="D40" s="35">
-        <f>(E8-D8)*100</f>
+        <f t="shared" si="8"/>
         <v>-7.2781148100628021</v>
       </c>
       <c r="E40" s="35">
-        <f>(F8-E8)*100</f>
+        <f t="shared" si="8"/>
         <v>30.566658819073194</v>
       </c>
       <c r="F40" s="35">
-        <f>(G8-F8)*100</f>
+        <f t="shared" si="8"/>
         <v>12.456934182443701</v>
       </c>
       <c r="G40" s="35">
-        <f>(H8-G8)*100</f>
+        <f t="shared" si="8"/>
         <v>15.842302032306799</v>
       </c>
       <c r="H40" s="35">
-        <f>(I8-H8)*100</f>
+        <f t="shared" si="8"/>
         <v>7.5775288764944992</v>
       </c>
       <c r="I40" s="35">
-        <f>(J8-I8)*100</f>
+        <f t="shared" si="8"/>
         <v>-35.091503303494299</v>
       </c>
       <c r="J40" s="35">
-        <f>(K8-J8)*100</f>
+        <f t="shared" si="8"/>
         <v>-6.0721832582969926</v>
       </c>
       <c r="K40" s="36">
-        <f>(L8-K8)*100</f>
+        <f t="shared" si="8"/>
         <v>-26.431325649825904</v>
       </c>
     </row>
@@ -13007,39 +13007,39 @@
         <v>5</v>
       </c>
       <c r="C41" s="35">
-        <f>(D9-C9)*100</f>
+        <f t="shared" ref="C41:K41" si="9">(D9-C9)*100</f>
         <v>-5.9925021444872995</v>
       </c>
       <c r="D41" s="35">
-        <f>(E9-D9)*100</f>
+        <f t="shared" si="9"/>
         <v>3.1026633710423996</v>
       </c>
       <c r="E41" s="35">
-        <f>(F9-E9)*100</f>
+        <f t="shared" si="9"/>
         <v>24.696229809331001</v>
       </c>
       <c r="F41" s="35">
-        <f>(G9-F9)*100</f>
+        <f t="shared" si="9"/>
         <v>-0.33023351025749936</v>
       </c>
       <c r="G41" s="35">
-        <f>(H9-G9)*100</f>
+        <f t="shared" si="9"/>
         <v>-20.273766094525104</v>
       </c>
       <c r="H41" s="35">
-        <f>(I9-H9)*100</f>
+        <f t="shared" si="9"/>
         <v>6.1204318110037015</v>
       </c>
       <c r="I41" s="35">
-        <f>(J9-I9)*100</f>
+        <f t="shared" si="9"/>
         <v>0.9041235635317002</v>
       </c>
       <c r="J41" s="35">
-        <f>(K9-J9)*100</f>
+        <f t="shared" si="9"/>
         <v>39.903152775606607</v>
       </c>
       <c r="K41" s="36">
-        <f>(L9-K9)*100</f>
+        <f t="shared" si="9"/>
         <v>-47.464201206244802</v>
       </c>
     </row>
@@ -13048,39 +13048,39 @@
         <v>6</v>
       </c>
       <c r="C42" s="35">
-        <f>(D10-C10)*100</f>
+        <f t="shared" ref="C42:K42" si="10">(D10-C10)*100</f>
         <v>-7.3597864204087013</v>
       </c>
       <c r="D42" s="35">
-        <f>(E10-D10)*100</f>
+        <f t="shared" si="10"/>
         <v>4.9447363872741015</v>
       </c>
       <c r="E42" s="35">
-        <f>(F10-E10)*100</f>
+        <f t="shared" si="10"/>
         <v>20.487533577782699</v>
       </c>
       <c r="F42" s="35">
-        <f>(G10-F10)*100</f>
+        <f t="shared" si="10"/>
         <v>1.7672489489364007</v>
       </c>
       <c r="G42" s="35">
-        <f>(H10-G10)*100</f>
+        <f t="shared" si="10"/>
         <v>-21.3649131701264</v>
       </c>
       <c r="H42" s="35">
-        <f>(I10-H10)*100</f>
+        <f t="shared" si="10"/>
         <v>6.7103036265879021</v>
       </c>
       <c r="I42" s="35">
-        <f>(J10-I10)*100</f>
+        <f t="shared" si="10"/>
         <v>-2.9937406408298006E-2</v>
       </c>
       <c r="J42" s="35">
-        <f>(K10-J10)*100</f>
+        <f t="shared" si="10"/>
         <v>63.701429298877002</v>
       </c>
       <c r="K42" s="36">
-        <f>(L10-K10)*100</f>
+        <f t="shared" si="10"/>
         <v>-68.558411313149904</v>
       </c>
     </row>
@@ -13089,39 +13089,39 @@
         <v>7</v>
       </c>
       <c r="C43" s="35">
-        <f>(D11-C11)*100</f>
+        <f t="shared" ref="C43:K43" si="11">(D11-C11)*100</f>
         <v>64.375541483467202</v>
       </c>
       <c r="D43" s="35">
-        <f>(E11-D11)*100</f>
+        <f t="shared" si="11"/>
         <v>-58.415352846931704</v>
       </c>
       <c r="E43" s="35">
-        <f>(F11-E11)*100</f>
+        <f t="shared" si="11"/>
         <v>3.4312987982999976</v>
       </c>
       <c r="F43" s="35">
-        <f>(G11-F11)*100</f>
+        <f t="shared" si="11"/>
         <v>-29.308347772439898</v>
       </c>
       <c r="G43" s="35">
-        <f>(H11-G11)*100</f>
+        <f t="shared" si="11"/>
         <v>47.440054345056097</v>
       </c>
       <c r="H43" s="35">
-        <f>(I11-H11)*100</f>
+        <f t="shared" si="11"/>
         <v>-12.387913458175703</v>
       </c>
       <c r="I43" s="35">
-        <f>(J11-I11)*100</f>
+        <f t="shared" si="11"/>
         <v>-15.462377348494094</v>
       </c>
       <c r="J43" s="35">
-        <f>(K11-J11)*100</f>
+        <f t="shared" si="11"/>
         <v>10.789376692909801</v>
       </c>
       <c r="K43" s="36">
-        <f>(L11-K11)*100</f>
+        <f t="shared" si="11"/>
         <v>-11.121414202484004</v>
       </c>
     </row>
@@ -13132,31 +13132,31 @@
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35">
-        <f>(F12-E12)*100</f>
+        <f t="shared" ref="E44:K44" si="12">(F12-E12)*100</f>
         <v>317.55626984499099</v>
       </c>
       <c r="F44" s="35">
-        <f>(G12-F12)*100</f>
+        <f t="shared" si="12"/>
         <v>-207.39860516431202</v>
       </c>
       <c r="G44" s="35">
-        <f>(H12-G12)*100</f>
+        <f t="shared" si="12"/>
         <v>109.99036340102002</v>
       </c>
       <c r="H44" s="35">
-        <f>(I12-H12)*100</f>
+        <f t="shared" si="12"/>
         <v>-91.760867493279036</v>
       </c>
       <c r="I44" s="35">
-        <f>(J12-I12)*100</f>
+        <f t="shared" si="12"/>
         <v>-55.907229684626088</v>
       </c>
       <c r="J44" s="35">
-        <f>(K12-J12)*100</f>
+        <f t="shared" si="12"/>
         <v>47.970535768588093</v>
       </c>
       <c r="K44" s="36">
-        <f>(L12-K12)*100</f>
+        <f t="shared" si="12"/>
         <v>13.036817868658002</v>
       </c>
     </row>
@@ -13168,27 +13168,27 @@
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35">
-        <f>(G13-F13)*100</f>
+        <f t="shared" ref="F45:K45" si="13">(G13-F13)*100</f>
         <v>30.503913426049799</v>
       </c>
       <c r="G45" s="35">
-        <f>(H13-G13)*100</f>
+        <f t="shared" si="13"/>
         <v>130.03341203240319</v>
       </c>
       <c r="H45" s="35">
-        <f>(I13-H13)*100</f>
+        <f t="shared" si="13"/>
         <v>-49.981830428763004</v>
       </c>
       <c r="I45" s="35">
-        <f>(J13-I13)*100</f>
+        <f t="shared" si="13"/>
         <v>-18.163885343927998</v>
       </c>
       <c r="J45" s="35">
-        <f>(K13-J13)*100</f>
+        <f t="shared" si="13"/>
         <v>13.314929879238003</v>
       </c>
       <c r="K45" s="36">
-        <f>(L13-K13)*100</f>
+        <f t="shared" si="13"/>
         <v>-2.0692297626130118</v>
       </c>
     </row>
@@ -13226,10 +13226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8912F767-E18A-BF48-B346-070965BBFF57}">
-  <dimension ref="B1:O80"/>
+  <dimension ref="B1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16317,6 +16317,311 @@
       </c>
       <c r="O80" s="27"/>
     </row>
+    <row r="85" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B86" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H86" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I86" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="K86" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M86" s="46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B87" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="39">
+        <v>0</v>
+      </c>
+      <c r="D87" s="39">
+        <v>0</v>
+      </c>
+      <c r="E87" s="39">
+        <v>0</v>
+      </c>
+      <c r="F87" s="39">
+        <v>0</v>
+      </c>
+      <c r="G87" s="39">
+        <v>0</v>
+      </c>
+      <c r="H87" s="39">
+        <v>0</v>
+      </c>
+      <c r="I87" s="39">
+        <v>0</v>
+      </c>
+      <c r="J87" s="39">
+        <v>0</v>
+      </c>
+      <c r="K87" s="39">
+        <v>0</v>
+      </c>
+      <c r="L87" s="39">
+        <v>0</v>
+      </c>
+      <c r="M87" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B88" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="39">
+        <v>-4.0049618996987502E-2</v>
+      </c>
+      <c r="D88" s="39">
+        <v>-5.4493561662020303E-2</v>
+      </c>
+      <c r="E88" s="39">
+        <v>-2.9662067256052301E-2</v>
+      </c>
+      <c r="F88" s="39">
+        <v>-0.16084067600751101</v>
+      </c>
+      <c r="G88" s="39">
+        <v>-0.172347603536528</v>
+      </c>
+      <c r="H88" s="39">
+        <v>-0.34440460464238498</v>
+      </c>
+      <c r="I88" s="39">
+        <v>-0.30306799336649998</v>
+      </c>
+      <c r="J88" s="39">
+        <v>0.69244851258581197</v>
+      </c>
+      <c r="K88" s="39">
+        <v>0</v>
+      </c>
+      <c r="L88" s="39">
+        <v>0</v>
+      </c>
+      <c r="M88" s="40">
+        <v>-0.47792869269949001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B89" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="39">
+        <v>-4.3505227715754102E-2</v>
+      </c>
+      <c r="D89" s="39">
+        <v>-0.165206425063055</v>
+      </c>
+      <c r="E89" s="39">
+        <v>4.1319382869302798E-2</v>
+      </c>
+      <c r="F89" s="39">
+        <v>-6.7022966921854596E-2</v>
+      </c>
+      <c r="G89" s="39">
+        <v>1.8613308515588602E-2</v>
+      </c>
+      <c r="H89" s="39">
+        <v>5.1141724853745997E-2</v>
+      </c>
+      <c r="I89" s="39">
+        <v>9.4734660033167495E-2</v>
+      </c>
+      <c r="J89" s="39">
+        <v>3.4187643020594898</v>
+      </c>
+      <c r="K89" s="39">
+        <v>0.20744081172491499</v>
+      </c>
+      <c r="L89" s="39">
+        <v>6.8241469816272896E-2</v>
+      </c>
+      <c r="M89" s="40">
+        <v>-0.45585738539898102</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B90" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="39">
+        <v>0.100478468899521</v>
+      </c>
+      <c r="D90" s="39">
+        <v>-5.8144165671047299E-2</v>
+      </c>
+      <c r="E90" s="39">
+        <v>7.5753412109553706E-2</v>
+      </c>
+      <c r="F90" s="39">
+        <v>3.9578217535750602E-2</v>
+      </c>
+      <c r="G90" s="39">
+        <v>6.9799906933454205E-4</v>
+      </c>
+      <c r="H90" s="39">
+        <v>0.30307605208529897</v>
+      </c>
+      <c r="I90" s="39">
+        <v>0.34183250414593602</v>
+      </c>
+      <c r="J90" s="39">
+        <v>45.981235697940498</v>
+      </c>
+      <c r="K90" s="39">
+        <v>125.051860202931</v>
+      </c>
+      <c r="L90" s="39">
+        <v>42.012860892388403</v>
+      </c>
+      <c r="M90" s="40">
+        <v>95.715619694397205</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B91" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="39">
+        <v>1.3999645578592901E-2</v>
+      </c>
+      <c r="D91" s="39">
+        <v>-0.13049249966812601</v>
+      </c>
+      <c r="E91" s="39">
+        <v>7.8717736750252204E-2</v>
+      </c>
+      <c r="F91" s="39">
+        <v>-4.3333814820156698E-4</v>
+      </c>
+      <c r="G91" s="39">
+        <v>-6.8054909260121005E-2</v>
+      </c>
+      <c r="H91" s="39">
+        <v>0.16795621815436801</v>
+      </c>
+      <c r="I91" s="39">
+        <v>0.115049751243781</v>
+      </c>
+      <c r="J91" s="39">
+        <v>14.730892448512501</v>
+      </c>
+      <c r="K91" s="39">
+        <v>11.030439684329201</v>
+      </c>
+      <c r="L91" s="39">
+        <v>7.2488188976377899</v>
+      </c>
+      <c r="M91" s="40">
+        <v>25.256366723259699</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B92" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="39">
+        <v>-1.7100832890306599E-2</v>
+      </c>
+      <c r="D92" s="39">
+        <v>-0.123921412451878</v>
+      </c>
+      <c r="E92" s="39">
+        <v>8.3594759180660699E-2</v>
+      </c>
+      <c r="F92" s="39">
+        <v>0.17441860465116199</v>
+      </c>
+      <c r="G92" s="39">
+        <v>7.4453234062354698E-2</v>
+      </c>
+      <c r="H92" s="39">
+        <v>9.7565578411020704E-2</v>
+      </c>
+      <c r="I92" s="39">
+        <v>6.8822553897180699E-2</v>
+      </c>
+      <c r="J92" s="39">
+        <v>41.787643020594899</v>
+      </c>
+      <c r="K92" s="39">
+        <v>19.282976324689901</v>
+      </c>
+      <c r="L92" s="39">
+        <v>16.859317585301799</v>
+      </c>
+      <c r="M92" s="40">
+        <v>19.320882852292002</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="41">
+        <v>7.5314548998759404E-2</v>
+      </c>
+      <c r="D93" s="41">
+        <v>-9.0534979423868206E-2</v>
+      </c>
+      <c r="E93" s="41">
+        <v>0.121895299961787</v>
+      </c>
+      <c r="F93" s="41">
+        <v>0.33952043911599</v>
+      </c>
+      <c r="G93" s="41">
+        <v>0.56776407631456405</v>
+      </c>
+      <c r="H93" s="41">
+        <v>5.45385921872052E-2</v>
+      </c>
+      <c r="I93" s="41">
+        <v>8.2089552238805805E-2</v>
+      </c>
+      <c r="J93" s="41">
+        <v>150.52448512585801</v>
+      </c>
+      <c r="K93" s="41">
+        <v>146.99661781285201</v>
+      </c>
+      <c r="L93" s="41">
+        <v>32.963254593175797</v>
+      </c>
+      <c r="M93" s="42">
+        <v>41.014431239388699</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
